--- a/mx_CPP_notes_v1.xlsx
+++ b/mx_CPP_notes_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDev\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC831EE-452B-48B8-AB63-75563A7D2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FA12E-067C-4EDE-880A-02C60AB05027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fltk_1.3.9" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>git clone git clone https://github.com/fltk/fltk.git</t>
   </si>
@@ -131,6 +131,60 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/en-us/cpp/build/how-to-configure-visual-cpp-projects-to-target-64-bit-platforms?view=msvc-170</t>
+  </si>
+  <si>
+    <t>E:\eDev\lib_external\fltk_1.3.9&gt;git remote -v</t>
+  </si>
+  <si>
+    <t>origin  https://github.com/marvinxu99/fltk.git (fetch)</t>
+  </si>
+  <si>
+    <t>origin  https://github.com/marvinxu99/fltk.git (push)</t>
+  </si>
+  <si>
+    <t>E:\eDev\lib_external\fltk_1.3.9&gt;git branch</t>
+  </si>
+  <si>
+    <t>* branch-1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  master</t>
+  </si>
+  <si>
+    <t>fltk v1.3.9</t>
+  </si>
+  <si>
+    <t>(not working yet)</t>
+  </si>
+  <si>
+    <t>Added Visual Studio 2022 support (Visual cC++ v143)</t>
+  </si>
+  <si>
+    <t>git branch-1.3  @marvinxu99/fltk.git</t>
+  </si>
+  <si>
+    <t>added x64 platform support</t>
+  </si>
+  <si>
+    <t>Inlcude path</t>
+  </si>
+  <si>
+    <t>E:\eDev\lib_external\fltk_1.3.9</t>
+  </si>
+  <si>
+    <t>Lib path</t>
+  </si>
+  <si>
+    <t>E:\eDev\lib_external\fltk_1.3.9\lib</t>
+  </si>
+  <si>
+    <t>Lib name:</t>
+  </si>
+  <si>
+    <t>fltkd.lib</t>
+  </si>
+  <si>
+    <t>fltk.lib</t>
   </si>
 </sst>
 </file>
@@ -227,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,6 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,6 +301,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,13 +342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5077534</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -314,13 +386,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381896</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -358,13 +430,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>515113</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -390,6 +462,275 @@
         <a:xfrm>
           <a:off x="4591050" y="9810750"/>
           <a:ext cx="5468113" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4754209</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DDA6DD-34B3-E659-1373-52F80FF3BF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14982825"/>
+          <a:ext cx="8840434" cy="5029902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477252</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>29031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784A0DA4-8A90-F5B2-D42F-74EC6B2256D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="15001875"/>
+          <a:ext cx="7182852" cy="3267531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>229820</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>172107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F22E18-989F-1283-F3A2-9A7BC13100BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="18659475"/>
+          <a:ext cx="8745170" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>410809</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C01DB1-3E31-48B4-80AA-21AB811C6CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="9525"/>
+          <a:ext cx="8840434" cy="5029902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>382002</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>48081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD76DDE-6380-429C-972F-64EF3B7FBDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5162550"/>
+          <a:ext cx="7182852" cy="3267531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>286784</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>134057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFFABBA-357E-2E9F-9AC4-F90FD4903837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="5162550"/>
+          <a:ext cx="7411484" cy="5068007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,69 +1018,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="61" spans="1:2" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="64" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -752,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877B3BAC-6430-47B9-8CA0-032FD1C85B9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,12 +1207,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -776,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A88C29F-00ED-4FF9-9199-11D20B795EA1}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -786,7 +1231,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
